--- a/ConsoleApp1/Sample/3-Input.xlsx
+++ b/ConsoleApp1/Sample/3-Input.xlsx
@@ -949,9 +949,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68534020-0904-4AAA-A14C-187C5C5FE536}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1DA41EB-D963-43E3-94D4-64102C81EBB0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C20F6D-C4A3-4890-A5AD-FB34CB63F2B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEA1BC8-54E1-465F-96F2-75FF101C33A6}"/>
 </file>